--- a/biology/Zoologie/Heliconius_melpomene/Heliconius_melpomene.xlsx
+++ b/biology/Zoologie/Heliconius_melpomene/Heliconius_melpomene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius melpomene est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,15 +523,87 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius melpomene a été nommé par Carl von Linné en 1758.
 Le nom de Melpomène provient de la mythologie grecque.
-Synonymes : Papilio melpomene Linnaeus, 1758[1]
-Noms vernaculaires
-Heliconius melpomene se nomme Postman Butterfly ou Common Postman en anglais.
-Sous-espèces
-Ce papillon est représenté par 27 sous-espèces :
+Synonymes : Papilio melpomene Linnaeus, 1758
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius melpomene se nomme Postman Butterfly ou Common Postman en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce papillon est représenté par 27 sous-espèces :
 Heliconius melpomene melpomene (Linnaeus, 1758)
 Heliconius melpomene aglaope (C. &amp; R. Felder, 1862)
 Heliconius melpomene amandus (Grose-Smith &amp; Kirby, 1892)
@@ -546,84 +630,11 @@
 Heliconius melpomene rosina (Boisduval, 1870)
 Heliconius melpomene schunkei (Lamas, 1976)
 Heliconius melpomene tessa (Barcant, 1982)
-Heliconius melpomene thelxiope (Hübner, [1806])
+Heliconius melpomene thelxiope (Hübner, )
 Heliconius melpomene thelxiopeia (Staudinger, 1897)
 Heliconius melpomene vicina (Ménétriés, 1847)
 Heliconius melpomene vulcanus (Butler, 1865)
-Heliconius melpomene xenoclea (Hewitson, [1853])[1].
-Phylogénèse
-Des études réalisées récemment en particulier sur les  mitochondries font remonter son origine à 2,1 M d'années[2]. Il serait originaire de l'est de l'Amérique du Sud[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Heliconius_melpomene</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un très grand papillon noir qui présente de fortes différences suivant les sous-espèces avec des ornementations variables. Tous présentent des ailes allongées et arrondies noires ou marron foncées avec des ornementations identiques sur les deux faces.
-Les antérieures sont barrées d'une bande rouge ou cuivre, ou orange ou de taches blanches.
-Les postérieures sont soit totalement noires (ou marron) soit barrées d'une bande blanche ou jaune ou marron et cuivre[3]
-Heliconius melpomene présente un irisé bleuté qui le différencie de Heliconius erato
-Chenilles
-Les chenilles sont blanches avec des marques et des épines noires[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_melpomene</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole toute l'année.
-Plantes hôtes
-Les plantes hôtes sont des passiflores, dont Passiflora oerstedii et Passiflora menispermifolia[1].
-</t>
+Heliconius melpomene xenoclea (Hewitson, ).</t>
         </is>
       </c>
     </row>
@@ -648,14 +659,235 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénèse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études réalisées récemment en particulier sur les  mitochondries font remonter son origine à 2,1 M d'années. Il serait originaire de l'est de l'Amérique du Sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un très grand papillon noir qui présente de fortes différences suivant les sous-espèces avec des ornementations variables. Tous présentent des ailes allongées et arrondies noires ou marron foncées avec des ornementations identiques sur les deux faces.
+Les antérieures sont barrées d'une bande rouge ou cuivre, ou orange ou de taches blanches.
+Les postérieures sont soit totalement noires (ou marron) soit barrées d'une bande blanche ou jaune ou marron et cuivre
+Heliconius melpomene présente un irisé bleuté qui le différencie de Heliconius erato
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenilles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont blanches avec des marques et des épines noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des passiflores, dont Passiflora oerstedii et Passiflora menispermifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le sud du Mexique, en Amérique centrale et dans le bassin amazonien (sud du Mexique, Panama, Costa Rica, Bolivie, Pérou, Équateur, Colombie, Venezuela, Suriname, Guyane française, Guyana et Brésil)[1].
-Biotope
-Son habitat est la forêt tropicale.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le sud du Mexique, en Amérique centrale et dans le bassin amazonien (sud du Mexique, Panama, Costa Rica, Bolivie, Pérou, Équateur, Colombie, Venezuela, Suriname, Guyane française, Guyana et Brésil).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_melpomene</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt tropicale.
 </t>
         </is>
       </c>
